--- a/excel/test.xlsx
+++ b/excel/test.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="22202"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20145" windowHeight="6795"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15940"/>
   </bookViews>
   <sheets>
-    <sheet name="9" sheetId="4" r:id="rId1"/>
+    <sheet name="表1" sheetId="4" r:id="rId1"/>
     <sheet name="分摊比例" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'9'!$A$1:$X$8</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">表1!$A$1:$X$7</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -23,11 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="90">
-  <si>
-    <t>供电方式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="89">
   <si>
     <t>站点名称</t>
   </si>
@@ -327,7 +326,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>用电服务费结算表（2016年9月直供电）</t>
+    <t>xxx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -336,9 +335,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -433,15 +432,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -493,7 +483,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -503,25 +493,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,7 +518,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
@@ -554,7 +535,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -660,12 +641,8 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="10">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 16" xfId="1"/>
     <cellStyle name="常规 16 2" xfId="5"/>
     <cellStyle name="常规 2" xfId="2"/>
@@ -674,6 +651,7 @@
     <cellStyle name="常规 4" xfId="9"/>
     <cellStyle name="常规 5" xfId="3"/>
     <cellStyle name="常规 6" xfId="7"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="千位分隔 2" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -732,7 +710,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -784,7 +762,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -978,7 +956,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -986,195 +964,269 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI8"/>
+  <dimension ref="A1:AI12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A12" sqref="A12:L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.125" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.140625" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="28" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.625" customWidth="1"/>
-    <col min="19" max="19" width="42.125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" customWidth="1"/>
+    <col min="19" max="19" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="25.5" customHeight="1">
-      <c r="A1" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
+    <row r="1" spans="1:35" s="30" customFormat="1" ht="74.25" customHeight="1">
+      <c r="A1" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="S1" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="T1" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="U1" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="V1" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="W1" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="X1" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y1" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z1" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA1" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB1" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC1" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD1" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE1" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF1" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG1" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH1" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI1" s="29" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="2" spans="1:35" s="30" customFormat="1" ht="74.25" customHeight="1">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:35" s="16" customFormat="1" ht="13">
+      <c r="A2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="15">
+        <v>1731191706</v>
+      </c>
+      <c r="F2" s="15">
+        <v>1731191706</v>
+      </c>
+      <c r="G2" s="31">
+        <v>42524</v>
+      </c>
+      <c r="H2" s="31">
+        <v>42583</v>
+      </c>
+      <c r="I2" s="32">
+        <v>59</v>
+      </c>
+      <c r="J2" s="15">
+        <v>60419</v>
+      </c>
+      <c r="K2" s="15">
+        <v>62209</v>
+      </c>
+      <c r="L2" s="15">
+        <v>1790</v>
+      </c>
+      <c r="M2" s="15">
+        <v>1</v>
+      </c>
+      <c r="N2" s="15">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="O2" s="34">
+        <v>1192.1400000000001</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="T2" s="15">
+        <v>775.36785600000007</v>
+      </c>
+      <c r="U2" s="15">
+        <f>ROUND(T2,2)</f>
+        <v>775.37</v>
+      </c>
+      <c r="V2" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="W2" s="15">
+        <v>0.65039999999999998</v>
+      </c>
+      <c r="X2" s="33">
+        <v>42494</v>
+      </c>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15">
         <v>0</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="14" t="s">
+      <c r="AA2" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB2" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE2" s="15">
+        <v>416.77214400000008</v>
+      </c>
+      <c r="AF2" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG2" s="15">
+        <v>0.34960000000000002</v>
+      </c>
+      <c r="AH2" s="33">
+        <v>42309</v>
+      </c>
+      <c r="AI2" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="P2" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q2" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="R2" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="S2" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="T2" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="U2" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="V2" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="W2" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="X2" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y2" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z2" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA2" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB2" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC2" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD2" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE2" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF2" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG2" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="AH2" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI2" s="29" t="s">
-        <v>55</v>
-      </c>
     </row>
-    <row r="3" spans="1:35" s="16" customFormat="1">
+    <row r="3" spans="1:35" s="16" customFormat="1" ht="13">
       <c r="A3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="15">
-        <v>1731191706</v>
-      </c>
-      <c r="F3" s="15">
-        <v>1731191706</v>
+      <c r="E3" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="G3" s="31">
-        <v>42524</v>
+        <v>42491</v>
       </c>
       <c r="H3" s="31">
-        <v>42583</v>
+        <v>42522</v>
       </c>
       <c r="I3" s="32">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="J3" s="15">
-        <v>60419</v>
+        <v>4725.4799999999996</v>
       </c>
       <c r="K3" s="15">
-        <v>62209</v>
+        <v>5830.91</v>
       </c>
       <c r="L3" s="15">
-        <v>1790</v>
+        <v>1105</v>
       </c>
       <c r="M3" s="15">
         <v>1</v>
@@ -1183,56 +1235,60 @@
         <v>0.66600000000000004</v>
       </c>
       <c r="O3" s="34">
-        <v>1192.1400000000001</v>
+        <v>735.93</v>
       </c>
       <c r="P3" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="R3" s="15"/>
       <c r="S3" s="15" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="T3" s="15">
-        <v>775.36785600000007</v>
+        <v>0</v>
       </c>
       <c r="U3" s="15">
-        <f>ROUND(T3,2)</f>
-        <v>775.37</v>
+        <f t="shared" ref="U3:U7" si="0">ROUND(T3,2)</f>
+        <v>0</v>
       </c>
       <c r="V3" s="15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W3" s="15">
-        <v>0.65039999999999998</v>
+        <v>0</v>
       </c>
       <c r="X3" s="33">
-        <v>42494</v>
-      </c>
-      <c r="Y3" s="15"/>
+        <v>42656</v>
+      </c>
+      <c r="Y3" s="15" t="s">
+        <v>81</v>
+      </c>
       <c r="Z3" s="15">
-        <v>0</v>
+        <v>428.82641099999995</v>
       </c>
       <c r="AA3" s="15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="AB3" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="33"/>
+        <v>0.5827</v>
+      </c>
+      <c r="AC3" s="33">
+        <v>42309</v>
+      </c>
       <c r="AD3" s="15" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="AE3" s="15">
-        <v>416.77214400000008</v>
+        <v>307.103589</v>
       </c>
       <c r="AF3" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AG3" s="15">
-        <v>0.34960000000000002</v>
+        <v>0.4173</v>
       </c>
       <c r="AH3" s="33">
         <v>42309</v>
@@ -1241,24 +1297,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:35" s="16" customFormat="1">
+    <row r="4" spans="1:35" s="16" customFormat="1" ht="13">
       <c r="A4" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G4" s="31">
         <v>42491</v>
@@ -1270,13 +1326,13 @@
         <v>31</v>
       </c>
       <c r="J4" s="15">
-        <v>4725.4799999999996</v>
+        <v>8654.76</v>
       </c>
       <c r="K4" s="15">
-        <v>5830.91</v>
+        <v>11651.25</v>
       </c>
       <c r="L4" s="15">
-        <v>1105</v>
+        <v>2996</v>
       </c>
       <c r="M4" s="15">
         <v>1</v>
@@ -1285,104 +1341,104 @@
         <v>0.66600000000000004</v>
       </c>
       <c r="O4" s="34">
-        <v>735.93</v>
+        <v>1995.34</v>
       </c>
       <c r="P4" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q4" s="15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R4" s="15"/>
       <c r="S4" s="15" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="T4" s="15">
-        <v>0</v>
+        <v>1068.7041039999999</v>
       </c>
       <c r="U4" s="15">
-        <f t="shared" ref="U4:U8" si="0">ROUND(T4,2)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1068.7</v>
       </c>
       <c r="V4" s="15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="W4" s="15">
-        <v>0</v>
+        <v>0.53559999999999997</v>
       </c>
       <c r="X4" s="33">
-        <v>42656</v>
+        <v>42426</v>
       </c>
       <c r="Y4" s="15" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="Z4" s="15">
-        <v>428.82641099999995</v>
+        <v>519.58653600000002</v>
       </c>
       <c r="AA4" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AB4" s="15">
-        <v>0.5827</v>
+        <v>0.26040000000000002</v>
       </c>
       <c r="AC4" s="33">
-        <v>42309</v>
+        <v>42336</v>
       </c>
       <c r="AD4" s="15" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="AE4" s="15">
-        <v>307.103589</v>
+        <v>407.04935999999998</v>
       </c>
       <c r="AF4" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AG4" s="15">
-        <v>0.4173</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="AH4" s="33">
-        <v>42309</v>
+        <v>42336</v>
       </c>
       <c r="AI4" s="15" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:35" s="16" customFormat="1">
+    <row r="5" spans="1:35" s="16" customFormat="1" ht="13">
       <c r="A5" s="15" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G5" s="31">
-        <v>42491</v>
+        <v>42492</v>
       </c>
       <c r="H5" s="31">
-        <v>42522</v>
+        <v>42523</v>
       </c>
       <c r="I5" s="32">
         <v>31</v>
       </c>
       <c r="J5" s="15">
-        <v>8654.76</v>
+        <v>7881</v>
       </c>
       <c r="K5" s="15">
-        <v>11651.25</v>
+        <v>9365</v>
       </c>
       <c r="L5" s="15">
-        <v>2996</v>
+        <v>1484</v>
       </c>
       <c r="M5" s="15">
         <v>1</v>
@@ -1391,104 +1447,100 @@
         <v>0.66600000000000004</v>
       </c>
       <c r="O5" s="34">
-        <v>1995.34</v>
+        <v>988.34</v>
       </c>
       <c r="P5" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="Q5" s="15" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R5" s="15"/>
       <c r="S5" s="15" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="T5" s="15">
-        <v>1068.7041039999999</v>
+        <v>642.81633599999998</v>
       </c>
       <c r="U5" s="15">
         <f t="shared" si="0"/>
-        <v>1068.7</v>
+        <v>642.82000000000005</v>
       </c>
       <c r="V5" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="W5" s="15">
-        <v>0.53559999999999997</v>
+        <v>0.65039999999999998</v>
       </c>
       <c r="X5" s="33">
-        <v>42426</v>
-      </c>
-      <c r="Y5" s="15" t="s">
-        <v>22</v>
-      </c>
+        <v>42231</v>
+      </c>
+      <c r="Y5" s="15"/>
       <c r="Z5" s="15">
-        <v>519.58653600000002</v>
+        <v>0</v>
       </c>
       <c r="AA5" s="15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB5" s="15">
-        <v>0.26040000000000002</v>
-      </c>
-      <c r="AC5" s="33">
-        <v>42336</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AC5" s="33"/>
       <c r="AD5" s="15" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AE5" s="15">
-        <v>407.04935999999998</v>
+        <v>345.52366400000005</v>
       </c>
       <c r="AF5" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AG5" s="15">
-        <v>0.20399999999999999</v>
+        <v>0.34960000000000002</v>
       </c>
       <c r="AH5" s="33">
-        <v>42336</v>
+        <v>42185</v>
       </c>
       <c r="AI5" s="15" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:35" s="16" customFormat="1">
+    <row r="6" spans="1:35" s="16" customFormat="1" ht="13">
       <c r="A6" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>13</v>
-      </c>
       <c r="E6" s="15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G6" s="31">
-        <v>42492</v>
+        <v>42491</v>
       </c>
       <c r="H6" s="31">
         <v>42523</v>
       </c>
       <c r="I6" s="32">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J6" s="15">
-        <v>7881</v>
+        <v>860.54</v>
       </c>
       <c r="K6" s="15">
-        <v>9365</v>
+        <v>2336.9</v>
       </c>
       <c r="L6" s="15">
-        <v>1484</v>
+        <v>1476</v>
       </c>
       <c r="M6" s="15">
         <v>1</v>
@@ -1497,24 +1549,26 @@
         <v>0.66600000000000004</v>
       </c>
       <c r="O6" s="34">
-        <v>988.34</v>
+        <v>983.02</v>
       </c>
       <c r="P6" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q6" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="R6" s="15"/>
+        <v>75</v>
+      </c>
+      <c r="R6" s="15">
+        <v>85.951945080091534</v>
+      </c>
       <c r="S6" s="15" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="T6" s="15">
-        <v>642.81633599999998</v>
+        <v>617.04061499960062</v>
       </c>
       <c r="U6" s="15">
         <f t="shared" si="0"/>
-        <v>642.82000000000005</v>
+        <v>617.04</v>
       </c>
       <c r="V6" s="15" t="s">
         <v>70</v>
@@ -1523,74 +1577,74 @@
         <v>0.65039999999999998</v>
       </c>
       <c r="X6" s="33">
-        <v>42231</v>
+        <v>42494</v>
       </c>
       <c r="Y6" s="15"/>
       <c r="Z6" s="15">
         <v>0</v>
       </c>
       <c r="AA6" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AB6" s="15">
         <v>0</v>
       </c>
       <c r="AC6" s="33"/>
       <c r="AD6" s="15" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE6" s="15">
-        <v>345.52366400000005</v>
+        <v>365.97938500039936</v>
       </c>
       <c r="AF6" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AG6" s="15">
         <v>0.34960000000000002</v>
       </c>
       <c r="AH6" s="33">
-        <v>42185</v>
+        <v>42479</v>
       </c>
       <c r="AI6" s="15" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:35" s="16" customFormat="1">
+    <row r="7" spans="1:35" s="16" customFormat="1" ht="13">
       <c r="A7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>13</v>
-      </c>
       <c r="E7" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="31">
+        <v>42493</v>
+      </c>
+      <c r="H7" s="31">
+        <v>42524</v>
+      </c>
+      <c r="I7" s="32">
         <v>31</v>
       </c>
-      <c r="F7" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="31">
-        <v>42491</v>
-      </c>
-      <c r="H7" s="31">
-        <v>42523</v>
-      </c>
-      <c r="I7" s="32">
-        <v>32</v>
-      </c>
       <c r="J7" s="15">
-        <v>860.54</v>
+        <v>7979</v>
       </c>
       <c r="K7" s="15">
-        <v>2336.9</v>
+        <v>8938</v>
       </c>
       <c r="L7" s="15">
-        <v>1476</v>
+        <v>959</v>
       </c>
       <c r="M7" s="15">
         <v>1</v>
@@ -1599,180 +1653,116 @@
         <v>0.66600000000000004</v>
       </c>
       <c r="O7" s="34">
-        <v>983.02</v>
+        <v>638.69000000000005</v>
       </c>
       <c r="P7" s="15" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="Q7" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="R7" s="15">
-        <v>85.951945080091534</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="R7" s="15"/>
       <c r="S7" s="15" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="T7" s="15">
-        <v>617.04061499960062</v>
+        <v>638.69000000000005</v>
       </c>
       <c r="U7" s="15">
         <f t="shared" si="0"/>
-        <v>617.04</v>
+        <v>638.69000000000005</v>
       </c>
       <c r="V7" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="W7" s="15">
-        <v>0.65039999999999998</v>
+        <v>1</v>
       </c>
       <c r="X7" s="33">
-        <v>42494</v>
+        <v>42199</v>
       </c>
       <c r="Y7" s="15"/>
       <c r="Z7" s="15">
         <v>0</v>
       </c>
       <c r="AA7" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AB7" s="15">
         <v>0</v>
       </c>
       <c r="AC7" s="33"/>
-      <c r="AD7" s="15" t="s">
-        <v>30</v>
-      </c>
+      <c r="AD7" s="15"/>
       <c r="AE7" s="15">
-        <v>365.97938500039936</v>
+        <v>0</v>
       </c>
       <c r="AF7" s="15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AG7" s="15">
-        <v>0.34960000000000002</v>
-      </c>
-      <c r="AH7" s="33">
-        <v>42479</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AH7" s="33"/>
       <c r="AI7" s="15" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:35" s="16" customFormat="1">
-      <c r="A8" s="15" t="s">
+    <row r="12" spans="1:35">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <v>7</v>
+      </c>
+      <c r="H12">
+        <v>8</v>
+      </c>
+      <c r="I12">
+        <v>9</v>
+      </c>
+      <c r="J12">
+        <v>10</v>
+      </c>
+      <c r="K12">
+        <v>11</v>
+      </c>
+      <c r="L12">
         <v>12</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="31">
-        <v>42493</v>
-      </c>
-      <c r="H8" s="31">
-        <v>42524</v>
-      </c>
-      <c r="I8" s="32">
-        <v>31</v>
-      </c>
-      <c r="J8" s="15">
-        <v>7979</v>
-      </c>
-      <c r="K8" s="15">
-        <v>8938</v>
-      </c>
-      <c r="L8" s="15">
-        <v>959</v>
-      </c>
-      <c r="M8" s="15">
-        <v>1</v>
-      </c>
-      <c r="N8" s="15">
-        <v>0.66600000000000004</v>
-      </c>
-      <c r="O8" s="34">
-        <v>638.69000000000005</v>
-      </c>
-      <c r="P8" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q8" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="T8" s="15">
-        <v>638.69000000000005</v>
-      </c>
-      <c r="U8" s="15">
-        <f t="shared" si="0"/>
-        <v>638.69000000000005</v>
-      </c>
-      <c r="V8" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="W8" s="15">
-        <v>1</v>
-      </c>
-      <c r="X8" s="33">
-        <v>42199</v>
-      </c>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB8" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="33"/>
-      <c r="AD8" s="15"/>
-      <c r="AE8" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG8" s="15">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="33"/>
-      <c r="AI8" s="15" t="b">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:X1"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="8" scale="65" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="65" orientation="landscape"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:M621"/>
@@ -1781,49 +1771,49 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="31.5" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="9" style="1"/>
-    <col min="13" max="13" width="2.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" customHeight="1">
       <c r="A1" s="7"/>
       <c r="B1" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="31.5" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="6">
         <v>0.53559999999999997</v>
@@ -1861,7 +1851,7 @@
     </row>
     <row r="3" spans="1:10" ht="31.5" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="6">
         <v>0.70830000000000004</v>
@@ -1885,7 +1875,7 @@
     </row>
     <row r="4" spans="1:10" ht="31.5" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="6">
         <v>0.65039999999999998</v>
@@ -1909,7 +1899,7 @@
     </row>
     <row r="5" spans="1:10" ht="31.5" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="6">
@@ -1933,7 +1923,7 @@
     </row>
     <row r="6" spans="1:10" ht="31.5" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6" s="12">
         <v>1</v>
@@ -1943,7 +1933,7 @@
     </row>
     <row r="7" spans="1:10" ht="31.5" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="13">
@@ -1953,7 +1943,7 @@
     </row>
     <row r="8" spans="1:10" ht="31.5" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="12"/>
@@ -1970,6 +1960,11 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>